--- a/net18/validation_data/Scenario3.xlsx
+++ b/net18/validation_data/Scenario3.xlsx
@@ -466,7 +466,7 @@
         <v>0.984654637430635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9592837691307068</v>
+        <v>0.9687058329582214</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>0.97114718936341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9561567306518555</v>
+        <v>0.969495415687561</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +520,7 @@
         <v>0.967926652260622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9723824858665466</v>
+        <v>0.9671235084533691</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>0.9679049215792981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9543041586875916</v>
+        <v>0.9749326705932617</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         <v>0.9673776304686179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9704921841621399</v>
+        <v>0.9757153987884521</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>0.9673609702200983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9752084612846375</v>
+        <v>0.9670174717903137</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         <v>0.9675372932236151</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9765748977661133</v>
+        <v>0.9654960632324219</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +655,7 @@
         <v>0.9670027323909344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9645522832870483</v>
+        <v>0.9679502844810486</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>0.9665344501648356</v>
       </c>
       <c r="G10" t="n">
-        <v>0.963839590549469</v>
+        <v>0.9691173434257507</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +709,7 @@
         <v>0.9665250312781165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9676669836044312</v>
+        <v>0.9680575132369995</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +736,7 @@
         <v>0.9664667874775882</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9538754224777222</v>
+        <v>0.9657676815986633</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +763,7 @@
         <v>0.9664314432100274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9591577053070068</v>
+        <v>0.9655358195304871</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +790,7 @@
         <v>0.9668612635428092</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9813739061355591</v>
+        <v>0.9699353575706482</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +817,7 @@
         <v>0.9668820064502903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9595353007316589</v>
+        <v>0.9740872979164124</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +844,7 @@
         <v>0.9677728833244847</v>
       </c>
       <c r="G16" t="n">
-        <v>0.969531774520874</v>
+        <v>0.974168598651886</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>0.9677151184307095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9579187035560608</v>
+        <v>0.9630635976791382</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +898,7 @@
         <v>0.967670945783361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9682837724685669</v>
+        <v>0.9666027426719666</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>0.9676624433036919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.973075270652771</v>
+        <v>0.968299925327301</v>
       </c>
     </row>
     <row r="20">
@@ -1660,7 +1660,7 @@
         <v>0.9850926913800613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9593003392219543</v>
+        <v>0.9697662591934204</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1687,7 @@
         <v>0.971546463261741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9566698670387268</v>
+        <v>0.9701190590858459</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1714,7 @@
         <v>0.9683303806185024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9725638628005981</v>
+        <v>0.9674259424209595</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1741,7 @@
         <v>0.9683086516563411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9541738033294678</v>
+        <v>0.9759608507156372</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1768,7 @@
         <v>0.9677824258899697</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9701716899871826</v>
+        <v>0.9761242866516113</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +1795,7 @@
         <v>0.9677658699930427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9752991199493408</v>
+        <v>0.9669963717460632</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +1822,7 @@
         <v>0.9679422783324262</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9766890406608582</v>
+        <v>0.9664857387542725</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +1849,7 @@
         <v>0.9674078531380376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9645920991897583</v>
+        <v>0.968216598033905</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +1876,7 @@
         <v>0.966939854502981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9637219309806824</v>
+        <v>0.969961404800415</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1903,7 @@
         <v>0.9669305667416457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9680270552635193</v>
+        <v>0.9685810208320618</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +1930,7 @@
         <v>0.9668724223458328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9540546536445618</v>
+        <v>0.9658108949661255</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +1957,7 @@
         <v>0.9668371136231696</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9594653844833374</v>
+        <v>0.9662909507751465</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +1984,7 @@
         <v>0.9672676664547334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9817789196968079</v>
+        <v>0.970343291759491</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2011,7 @@
         <v>0.9672883973566481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9599975943565369</v>
+        <v>0.9747560024261475</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2038,7 @@
         <v>0.9681766918125857</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9704325795173645</v>
+        <v>0.9753343462944031</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2065,7 @@
         <v>0.9681189624340348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9583083391189575</v>
+        <v>0.9634864926338196</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2092,7 @@
         <v>0.9680748533052229</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9684225916862488</v>
+        <v>0.9672340154647827</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2119,7 @@
         <v>0.9680662975839952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.973086416721344</v>
+        <v>0.9688071012496948</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +2854,7 @@
         <v>0.9846906486798087</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9591005444526672</v>
+        <v>0.9690381288528442</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +2881,7 @@
         <v>0.9711625895808235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.956221878528595</v>
+        <v>0.9698264598846436</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +2908,7 @@
         <v>0.9679444935988594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9722606539726257</v>
+        <v>0.9672456979751587</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +2935,7 @@
         <v>0.9679227278978906</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9534093141555786</v>
+        <v>0.9754802584648132</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +2962,7 @@
         <v>0.9673950686112585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9701790809631348</v>
+        <v>0.9756767749786377</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +2989,7 @@
         <v>0.9673781512549334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9747491478919983</v>
+        <v>0.9664040803909302</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3016,7 @@
         <v>0.9675535323508972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9763562679290771</v>
+        <v>0.9657930731773376</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3043,7 @@
         <v>0.9670200780466803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9643043875694275</v>
+        <v>0.9675602912902832</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3070,7 @@
         <v>0.9665519924847006</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9632589817047119</v>
+        <v>0.9694263339042664</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3097,7 @@
         <v>0.9665426228697463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9677165150642395</v>
+        <v>0.96832275390625</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3124,7 @@
         <v>0.9664847461555856</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9537937641143799</v>
+        <v>0.9656330943107605</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3151,7 @@
         <v>0.9664495883362143</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9590206146240234</v>
+        <v>0.9653477668762207</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3178,7 @@
         <v>0.9668783724976158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9816078543663025</v>
+        <v>0.9700199961662292</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3205,7 @@
         <v>0.9668990582276642</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9592315554618835</v>
+        <v>0.9744585752487183</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3232,7 @@
         <v>0.9677904997976086</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9701275229454041</v>
+        <v>0.9746558666229248</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3259,7 @@
         <v>0.9677326526676496</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9582787752151489</v>
+        <v>0.9631686210632324</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3286,7 @@
         <v>0.9676882522178728</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9679834842681885</v>
+        <v>0.9673013687133789</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3313,7 @@
         <v>0.9676799613849458</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9725953936576843</v>
+        <v>0.9682842493057251</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario3.xlsx
+++ b/net18/validation_data/Scenario3.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -441,6 +441,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,7 +481,16 @@
         <v>0.984654637430635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9687058329582214</v>
+        <v>0.9762083292007446</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9727476835250854</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9732129894835398</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.972614660859108</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +517,16 @@
         <v>0.97114718936341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.969495415687561</v>
+        <v>0.9704018831253052</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9706719517707825</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9716591719662176</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9711216222494841</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +553,16 @@
         <v>0.967926652260622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9671235084533691</v>
+        <v>0.9717544913291931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9700327515602112</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9713593756214742</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9708215743303299</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +589,16 @@
         <v>0.9679049215792981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9749326705932617</v>
+        <v>0.9701979160308838</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9698159694671631</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9713398369162124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9710562583059072</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +625,16 @@
         <v>0.9673776304686179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9757153987884521</v>
+        <v>0.9702368378639221</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9697266817092896</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9712923521118556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9707390088587999</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +661,16 @@
         <v>0.9673609702200983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9670174717903137</v>
+        <v>0.9681689739227295</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9699131846427917</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.971309960266814</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9708166979253292</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +697,16 @@
         <v>0.9675372932236151</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9654960632324219</v>
+        <v>0.9688431620597839</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9698947668075562</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.971337542150144</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9707022868096828</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +733,16 @@
         <v>0.9670027323909344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9679502844810486</v>
+        <v>0.9698131680488586</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9697583913803101</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9712673561827564</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9708121549338102</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +769,16 @@
         <v>0.9665344501648356</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9691173434257507</v>
+        <v>0.9690741896629333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9699063301086426</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9712177561538838</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9706190526485443</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +805,16 @@
         <v>0.9665250312781165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9680575132369995</v>
+        <v>0.9688156843185425</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9701405167579651</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9712176087838172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9705638475716114</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +841,16 @@
         <v>0.9664667874775882</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9657676815986633</v>
+        <v>0.9693359732627869</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9699406027793884</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9712173785535176</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9706821534782648</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +877,16 @@
         <v>0.9664314432100274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9655358195304871</v>
+        <v>0.9678239822387695</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.969895601272583</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9712225517584312</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9706613644957542</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +913,16 @@
         <v>0.9668612635428092</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9699353575706482</v>
+        <v>0.9709464311599731</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9702876806259155</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9714898582650204</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9710502363741398</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +949,16 @@
         <v>0.9668820064502903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9740872979164124</v>
+        <v>0.9726852774620056</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9703362584114075</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9715341641561924</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9711104389280081</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +985,16 @@
         <v>0.9677728833244847</v>
       </c>
       <c r="G16" t="n">
-        <v>0.974168598651886</v>
+        <v>0.969898521900177</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9699578285217285</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9713296706054768</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9707029983401299</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +1021,16 @@
         <v>0.9677151184307095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9630635976791382</v>
+        <v>0.9712648391723633</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9701982140541077</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9713044433872025</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9706152696162462</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +1057,16 @@
         <v>0.967670945783361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9666027426719666</v>
+        <v>0.9708113074302673</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9698747992515564</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9713279140427258</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9706277046352625</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +1093,16 @@
         <v>0.9676624433036919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.968299925327301</v>
+        <v>0.9702373147010803</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9699745178222656</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.971320653063784</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9706914722919464</v>
       </c>
     </row>
     <row r="20">
@@ -1592,7 +1769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -1635,6 +1812,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1660,7 +1852,16 @@
         <v>0.9850926913800613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9697662591934204</v>
+        <v>0.9765862226486206</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9729588627815247</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9733498185746912</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9728307984769344</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1888,16 @@
         <v>0.971546463261741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9701190590858459</v>
+        <v>0.9708735942840576</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9709711074829102</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9718379325155314</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9714913461357355</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1924,16 @@
         <v>0.9683303806185024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9674259424209595</v>
+        <v>0.9722869396209717</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.97056645154953</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.971539040624009</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9711607340723276</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1960,16 @@
         <v>0.9683086516563411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9759608507156372</v>
+        <v>0.9706631898880005</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9703032374382019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9715200697457376</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9712864831089973</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1996,16 @@
         <v>0.9677824258899697</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9761242866516113</v>
+        <v>0.9707242846488953</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9701356291770935</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.971473245815874</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9711469933390617</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +2032,16 @@
         <v>0.9677658699930427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9669963717460632</v>
+        <v>0.968663215637207</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.970403254032135</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9714917088534626</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9710953235626221</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +2068,16 @@
         <v>0.9679422783324262</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9664857387542725</v>
+        <v>0.9693394899368286</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9702978730201721</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9715176614261628</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9710193108767271</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +2104,16 @@
         <v>0.9674078531380376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.968216598033905</v>
+        <v>0.9703143239021301</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9701294302940369</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.971446757393018</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9710960332304239</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +2140,16 @@
         <v>0.966939854502981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.969961404800415</v>
+        <v>0.969562292098999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9702839255332947</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9714017421985528</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9709310252219439</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +2176,16 @@
         <v>0.9669305667416457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9685810208320618</v>
+        <v>0.9693045616149902</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9704572558403015</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.971399820699556</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9708862695842981</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +2212,16 @@
         <v>0.9668724223458328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9658108949661255</v>
+        <v>0.9697837829589844</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9702953100204468</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9713984798130514</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9709929507225752</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +2248,16 @@
         <v>0.9668371136231696</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9662909507751465</v>
+        <v>0.968310534954071</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.97027987241745</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9714021579686458</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9710420165210962</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +2284,16 @@
         <v>0.9672676664547334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.970343291759491</v>
+        <v>0.9713999032974243</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9706463217735291</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.971674482704142</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9713309016078711</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2320,16 @@
         <v>0.9672883973566481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9747560024261475</v>
+        <v>0.9731541872024536</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9707151651382446</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9717204556765836</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9713439382612705</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2356,16 @@
         <v>0.9681766918125857</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9753343462944031</v>
+        <v>0.9703613519668579</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9704041481018066</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9715105588283274</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9710334651172161</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2392,16 @@
         <v>0.9681189624340348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9634864926338196</v>
+        <v>0.9717307090759277</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9705173373222351</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9714847447401564</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9709462132304907</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2428,16 @@
         <v>0.9680748533052229</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9672340154647827</v>
+        <v>0.9713181853294373</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9703420996665955</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9715067732832088</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9709936566650867</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2464,16 @@
         <v>0.9680662975839952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9688071012496948</v>
+        <v>0.9707207679748535</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9704458117485046</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9715038750282204</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.971008975058794</v>
       </c>
     </row>
     <row r="20">
@@ -2786,7 +3140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -2829,6 +3183,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2854,7 +3223,16 @@
         <v>0.9846906486798087</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9690381288528442</v>
+        <v>0.9761663675308228</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9725909233093262</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9730933236636564</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9725103303790092</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +3259,16 @@
         <v>0.9711625895808235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9698264598846436</v>
+        <v>0.9704825878143311</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9709097146987915</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9715747160324228</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9711426477879286</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +3295,16 @@
         <v>0.9679444935988594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9672456979751587</v>
+        <v>0.9719361066818237</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.970124363899231</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9712734130392966</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9708342961966991</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +3331,16 @@
         <v>0.9679227278978906</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9754802584648132</v>
+        <v>0.9703037142753601</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9699938297271729</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9712527984532416</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9709512088447809</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +3367,16 @@
         <v>0.9673950686112585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9756767749786377</v>
+        <v>0.9703472852706909</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9697715640068054</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9712044427123936</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9706837050616741</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +3403,16 @@
         <v>0.9673781512549334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9664040803909302</v>
+        <v>0.9682731032371521</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.970022976398468</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9712209654304896</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9706852622330189</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3439,16 @@
         <v>0.9675535323508972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9657930731773376</v>
+        <v>0.968962550163269</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9698737263679504</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9712459327907126</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.970629608258605</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3475,16 @@
         <v>0.9670200780466803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9675602912902832</v>
+        <v>0.9699459671974182</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.969679594039917</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9711797904231086</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9707021750509739</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3511,16 @@
         <v>0.9665519924847006</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9694263339042664</v>
+        <v>0.9691745042800903</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9698253273963928</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.971136174815288</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9705584030598402</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3547,16 @@
         <v>0.9665426228697463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.96832275390625</v>
+        <v>0.968936562538147</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9701217412948608</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9711325294274888</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9704122822731733</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3583,16 @@
         <v>0.9664847461555856</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9656330943107605</v>
+        <v>0.969379723072052</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9699321985244751</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9711326756830267</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9705849774181843</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3619,16 @@
         <v>0.9664495883362143</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9653477668762207</v>
+        <v>0.9679166674613953</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9698776006698608</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9711338085195156</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9706240314990282</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3655,16 @@
         <v>0.9668783724976158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9700199961662292</v>
+        <v>0.9710345268249512</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9702818989753723</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9714042566292288</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9708847478032112</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3691,16 @@
         <v>0.9668990582276642</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9744585752487183</v>
+        <v>0.972794771194458</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.970242440700531</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9714490114506836</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9708912093192339</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3727,16 @@
         <v>0.9677904997976086</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9746558666229248</v>
+        <v>0.9699744582176208</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9700605273246765</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.971242152179398</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9706978052854538</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3763,16 @@
         <v>0.9677326526676496</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9631686210632324</v>
+        <v>0.9713557958602905</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9701403379440308</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.971218490865024</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9706005435436964</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3799,16 @@
         <v>0.9676882522178728</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9673013687133789</v>
+        <v>0.9709411859512329</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9700134992599487</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9712422761025408</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9706536922603846</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3835,16 @@
         <v>0.9676799613849458</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9682842493057251</v>
+        <v>0.9703565835952759</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9699594974517822</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9712377303692026</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9707414116710424</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario3.xlsx
+++ b/net18/validation_data/Scenario3.xlsx
@@ -481,7 +481,7 @@
         <v>0.984654637430635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9762083292007446</v>
+        <v>0.9743313193321228</v>
       </c>
       <c r="H2" t="n">
         <v>0.9727476835250854</v>
@@ -517,7 +517,7 @@
         <v>0.97114718936341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9704018831253052</v>
+        <v>0.9726438522338867</v>
       </c>
       <c r="H3" t="n">
         <v>0.9706719517707825</v>
@@ -553,7 +553,7 @@
         <v>0.967926652260622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9717544913291931</v>
+        <v>0.9733038544654846</v>
       </c>
       <c r="H4" t="n">
         <v>0.9700327515602112</v>
@@ -589,7 +589,7 @@
         <v>0.9679049215792981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9701979160308838</v>
+        <v>0.9734697937965393</v>
       </c>
       <c r="H5" t="n">
         <v>0.9698159694671631</v>
@@ -625,7 +625,7 @@
         <v>0.9673776304686179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9702368378639221</v>
+        <v>0.9726387858390808</v>
       </c>
       <c r="H6" t="n">
         <v>0.9697266817092896</v>
@@ -661,7 +661,7 @@
         <v>0.9673609702200983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9681689739227295</v>
+        <v>0.9741093516349792</v>
       </c>
       <c r="H7" t="n">
         <v>0.9699131846427917</v>
@@ -697,7 +697,7 @@
         <v>0.9675372932236151</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9688431620597839</v>
+        <v>0.9737690687179565</v>
       </c>
       <c r="H8" t="n">
         <v>0.9698947668075562</v>
@@ -733,7 +733,7 @@
         <v>0.9670027323909344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9698131680488586</v>
+        <v>0.9719139933586121</v>
       </c>
       <c r="H9" t="n">
         <v>0.9697583913803101</v>
@@ -769,7 +769,7 @@
         <v>0.9665344501648356</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9690741896629333</v>
+        <v>0.9735423922538757</v>
       </c>
       <c r="H10" t="n">
         <v>0.9699063301086426</v>
@@ -805,7 +805,7 @@
         <v>0.9665250312781165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9688156843185425</v>
+        <v>0.9728034138679504</v>
       </c>
       <c r="H11" t="n">
         <v>0.9701405167579651</v>
@@ -841,7 +841,7 @@
         <v>0.9664667874775882</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9693359732627869</v>
+        <v>0.9736214876174927</v>
       </c>
       <c r="H12" t="n">
         <v>0.9699406027793884</v>
@@ -877,7 +877,7 @@
         <v>0.9664314432100274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9678239822387695</v>
+        <v>0.9732990860939026</v>
       </c>
       <c r="H13" t="n">
         <v>0.969895601272583</v>
@@ -913,7 +913,7 @@
         <v>0.9668612635428092</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9709464311599731</v>
+        <v>0.9748470187187195</v>
       </c>
       <c r="H14" t="n">
         <v>0.9702876806259155</v>
@@ -949,7 +949,7 @@
         <v>0.9668820064502903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9726852774620056</v>
+        <v>0.9736936092376709</v>
       </c>
       <c r="H15" t="n">
         <v>0.9703362584114075</v>
@@ -985,7 +985,7 @@
         <v>0.9677728833244847</v>
       </c>
       <c r="G16" t="n">
-        <v>0.969898521900177</v>
+        <v>0.9728346467018127</v>
       </c>
       <c r="H16" t="n">
         <v>0.9699578285217285</v>
@@ -1021,7 +1021,7 @@
         <v>0.9677151184307095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9712648391723633</v>
+        <v>0.9757441282272339</v>
       </c>
       <c r="H17" t="n">
         <v>0.9701982140541077</v>
@@ -1057,7 +1057,7 @@
         <v>0.967670945783361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9708113074302673</v>
+        <v>0.9732016921043396</v>
       </c>
       <c r="H18" t="n">
         <v>0.9698747992515564</v>
@@ -1093,7 +1093,7 @@
         <v>0.9676624433036919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9702373147010803</v>
+        <v>0.9732253551483154</v>
       </c>
       <c r="H19" t="n">
         <v>0.9699745178222656</v>
@@ -1852,7 +1852,7 @@
         <v>0.9850926913800613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9765862226486206</v>
+        <v>0.9747558832168579</v>
       </c>
       <c r="H2" t="n">
         <v>0.9729588627815247</v>
@@ -1888,7 +1888,7 @@
         <v>0.971546463261741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9708735942840576</v>
+        <v>0.973061203956604</v>
       </c>
       <c r="H3" t="n">
         <v>0.9709711074829102</v>
@@ -1924,7 +1924,7 @@
         <v>0.9683303806185024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9722869396209717</v>
+        <v>0.9737880229949951</v>
       </c>
       <c r="H4" t="n">
         <v>0.97056645154953</v>
@@ -1960,7 +1960,7 @@
         <v>0.9683086516563411</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9706631898880005</v>
+        <v>0.9738999009132385</v>
       </c>
       <c r="H5" t="n">
         <v>0.9703032374382019</v>
@@ -1996,7 +1996,7 @@
         <v>0.9677824258899697</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9707242846488953</v>
+        <v>0.9730463624000549</v>
       </c>
       <c r="H6" t="n">
         <v>0.9701356291770935</v>
@@ -2032,7 +2032,7 @@
         <v>0.9677658699930427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.968663215637207</v>
+        <v>0.9745562672615051</v>
       </c>
       <c r="H7" t="n">
         <v>0.970403254032135</v>
@@ -2068,7 +2068,7 @@
         <v>0.9679422783324262</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9693394899368286</v>
+        <v>0.9741793274879456</v>
       </c>
       <c r="H8" t="n">
         <v>0.9702978730201721</v>
@@ -2104,7 +2104,7 @@
         <v>0.9674078531380376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9703143239021301</v>
+        <v>0.9722988605499268</v>
       </c>
       <c r="H9" t="n">
         <v>0.9701294302940369</v>
@@ -2140,7 +2140,7 @@
         <v>0.966939854502981</v>
       </c>
       <c r="G10" t="n">
-        <v>0.969562292098999</v>
+        <v>0.9739412069320679</v>
       </c>
       <c r="H10" t="n">
         <v>0.9702839255332947</v>
@@ -2176,7 +2176,7 @@
         <v>0.9669305667416457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9693045616149902</v>
+        <v>0.9732367396354675</v>
       </c>
       <c r="H11" t="n">
         <v>0.9704572558403015</v>
@@ -2212,7 +2212,7 @@
         <v>0.9668724223458328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9697837829589844</v>
+        <v>0.9740144014358521</v>
       </c>
       <c r="H12" t="n">
         <v>0.9702953100204468</v>
@@ -2248,7 +2248,7 @@
         <v>0.9668371136231696</v>
       </c>
       <c r="G13" t="n">
-        <v>0.968310534954071</v>
+        <v>0.9737718105316162</v>
       </c>
       <c r="H13" t="n">
         <v>0.97027987241745</v>
@@ -2284,7 +2284,7 @@
         <v>0.9672676664547334</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9713999032974243</v>
+        <v>0.9752481579780579</v>
       </c>
       <c r="H14" t="n">
         <v>0.9706463217735291</v>
@@ -2320,7 +2320,7 @@
         <v>0.9672883973566481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9731541872024536</v>
+        <v>0.9740443825721741</v>
       </c>
       <c r="H15" t="n">
         <v>0.9707151651382446</v>
@@ -2356,7 +2356,7 @@
         <v>0.9681766918125857</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9703613519668579</v>
+        <v>0.9733151793479919</v>
       </c>
       <c r="H16" t="n">
         <v>0.9704041481018066</v>
@@ -2392,7 +2392,7 @@
         <v>0.9681189624340348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9717307090759277</v>
+        <v>0.9762293696403503</v>
       </c>
       <c r="H17" t="n">
         <v>0.9705173373222351</v>
@@ -2428,7 +2428,7 @@
         <v>0.9680748533052229</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9713181853294373</v>
+        <v>0.9736239910125732</v>
       </c>
       <c r="H18" t="n">
         <v>0.9703420996665955</v>
@@ -2464,7 +2464,7 @@
         <v>0.9680662975839952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9707207679748535</v>
+        <v>0.9736237525939941</v>
       </c>
       <c r="H19" t="n">
         <v>0.9704458117485046</v>
@@ -3223,7 +3223,7 @@
         <v>0.9846906486798087</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9761663675308228</v>
+        <v>0.974428653717041</v>
       </c>
       <c r="H2" t="n">
         <v>0.9725909233093262</v>
@@ -3259,7 +3259,7 @@
         <v>0.9711625895808235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9704825878143311</v>
+        <v>0.9727462530136108</v>
       </c>
       <c r="H3" t="n">
         <v>0.9709097146987915</v>
@@ -3295,7 +3295,7 @@
         <v>0.9679444935988594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9719361066818237</v>
+        <v>0.973467230796814</v>
       </c>
       <c r="H4" t="n">
         <v>0.970124363899231</v>
@@ -3331,7 +3331,7 @@
         <v>0.9679227278978906</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9703037142753601</v>
+        <v>0.9736040234565735</v>
       </c>
       <c r="H5" t="n">
         <v>0.9699938297271729</v>
@@ -3367,7 +3367,7 @@
         <v>0.9673950686112585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9703472852706909</v>
+        <v>0.972745954990387</v>
       </c>
       <c r="H6" t="n">
         <v>0.9697715640068054</v>
@@ -3403,7 +3403,7 @@
         <v>0.9673781512549334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9682731032371521</v>
+        <v>0.9742339253425598</v>
       </c>
       <c r="H7" t="n">
         <v>0.970022976398468</v>
@@ -3439,7 +3439,7 @@
         <v>0.9675535323508972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.968962550163269</v>
+        <v>0.9739281535148621</v>
       </c>
       <c r="H8" t="n">
         <v>0.9698737263679504</v>
@@ -3475,7 +3475,7 @@
         <v>0.9670200780466803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9699459671974182</v>
+        <v>0.9720037579536438</v>
       </c>
       <c r="H9" t="n">
         <v>0.969679594039917</v>
@@ -3511,7 +3511,7 @@
         <v>0.9665519924847006</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9691745042800903</v>
+        <v>0.9736327528953552</v>
       </c>
       <c r="H10" t="n">
         <v>0.9698253273963928</v>
@@ -3547,7 +3547,7 @@
         <v>0.9665426228697463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.968936562538147</v>
+        <v>0.9729143977165222</v>
       </c>
       <c r="H11" t="n">
         <v>0.9701217412948608</v>
@@ -3583,7 +3583,7 @@
         <v>0.9664847461555856</v>
       </c>
       <c r="G12" t="n">
-        <v>0.969379723072052</v>
+        <v>0.9737004041671753</v>
       </c>
       <c r="H12" t="n">
         <v>0.9699321985244751</v>
@@ -3619,7 +3619,7 @@
         <v>0.9664495883362143</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9679166674613953</v>
+        <v>0.9734480977058411</v>
       </c>
       <c r="H13" t="n">
         <v>0.9698776006698608</v>
@@ -3655,7 +3655,7 @@
         <v>0.9668783724976158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9710345268249512</v>
+        <v>0.9749314785003662</v>
       </c>
       <c r="H14" t="n">
         <v>0.9702818989753723</v>
@@ -3691,7 +3691,7 @@
         <v>0.9668990582276642</v>
       </c>
       <c r="G15" t="n">
-        <v>0.972794771194458</v>
+        <v>0.9737292528152466</v>
       </c>
       <c r="H15" t="n">
         <v>0.970242440700531</v>
@@ -3727,7 +3727,7 @@
         <v>0.9677904997976086</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9699744582176208</v>
+        <v>0.9729897975921631</v>
       </c>
       <c r="H16" t="n">
         <v>0.9700605273246765</v>
@@ -3763,7 +3763,7 @@
         <v>0.9677326526676496</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9713557958602905</v>
+        <v>0.9759286642074585</v>
       </c>
       <c r="H17" t="n">
         <v>0.9701403379440308</v>
@@ -3799,7 +3799,7 @@
         <v>0.9676882522178728</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9709411859512329</v>
+        <v>0.9733139872550964</v>
       </c>
       <c r="H18" t="n">
         <v>0.9700134992599487</v>
@@ -3835,7 +3835,7 @@
         <v>0.9676799613849458</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9703565835952759</v>
+        <v>0.9733111262321472</v>
       </c>
       <c r="H19" t="n">
         <v>0.9699594974517822</v>
